--- a/res/voc/fruit.xlsx
+++ b/res/voc/fruit.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Hoa quả</t>
+  </si>
   <si>
     <t xml:space="preserve">en</t>
   </si>
@@ -28,107 +31,106 @@
     <t xml:space="preserve">vi</t>
   </si>
   <si>
-    <t xml:space="preserve">pronunciation</t>
-  </si>
-  <si>
     <t xml:space="preserve">apple</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả táo
--    (n) tập đoàn Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ˈæpl/</t>
+    <t xml:space="preserve">quả táo</t>
   </si>
   <si>
     <t xml:space="preserve">banana</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả chuối</t>
+    <t xml:space="preserve">quả chuối</t>
   </si>
   <si>
     <t xml:space="preserve">orange</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả cam</t>
+    <t xml:space="preserve">quả cam</t>
   </si>
   <si>
     <t xml:space="preserve">lemon</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả chanh vàng</t>
+    <t xml:space="preserve">quả chanh vàng</t>
   </si>
   <si>
     <t xml:space="preserve">pineapple</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả dứa</t>
+    <t xml:space="preserve">quả dứa</t>
   </si>
   <si>
     <t xml:space="preserve">mango</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả xoài</t>
+    <t xml:space="preserve">quả xoài</t>
   </si>
   <si>
     <t xml:space="preserve">coconut</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả dừa</t>
+    <t xml:space="preserve">quả dừa</t>
   </si>
   <si>
     <t xml:space="preserve">blueberry</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả việt quất</t>
+    <t xml:space="preserve">quả việt quất</t>
   </si>
   <si>
     <t xml:space="preserve">grape</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả nho</t>
+    <t xml:space="preserve">quả nho</t>
   </si>
   <si>
     <t xml:space="preserve">kiwi</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả kiwi</t>
+    <t xml:space="preserve">quả kiwi</t>
   </si>
   <si>
     <t xml:space="preserve">lime</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả chanh xanh</t>
+    <t xml:space="preserve">quả chanh xanh</t>
   </si>
   <si>
     <t xml:space="preserve">lychee</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả vải</t>
+    <t xml:space="preserve">quả vải</t>
   </si>
   <si>
     <t xml:space="preserve">papaya</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả đu đủ</t>
+    <t xml:space="preserve">quả đu đủ</t>
   </si>
   <si>
     <t xml:space="preserve">strawberry</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả dâu tây</t>
+    <t xml:space="preserve">quả dâu tây</t>
   </si>
   <si>
     <t xml:space="preserve">watermelon</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả dưa hấu</t>
+    <t xml:space="preserve">quả dưa hấu</t>
   </si>
   <si>
     <t xml:space="preserve">peach</t>
   </si>
   <si>
-    <t xml:space="preserve">-    (n) quả đào</t>
+    <t xml:space="preserve">quả đào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clgt??</t>
   </si>
 </sst>
 </file>
@@ -228,15 +230,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,177 +259,187 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/res/voc/fruit.xlsx
+++ b/res/voc/fruit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Hoa quả</t>
   </si>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">vi</t>
   </si>
   <si>
+    <t xml:space="preserve">seen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imgPath</t>
+  </si>
+  <si>
     <t xml:space="preserve">apple</t>
   </si>
   <si>
@@ -130,16 +136,17 @@
     <t xml:space="preserve">fly</t>
   </si>
   <si>
-    <t xml:space="preserve">clgt??</t>
+    <t xml:space="preserve">hugh??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -213,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,7 +237,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,6 +246,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,15 +273,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,158 +297,215 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/res/voc/fruit.xlsx
+++ b/res/voc/fruit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Hoa quả</t>
   </si>
@@ -43,12 +43,18 @@
     <t xml:space="preserve">quả táo</t>
   </si>
   <si>
+    <t xml:space="preserve">apple.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">banana</t>
   </si>
   <si>
     <t xml:space="preserve">quả chuối</t>
   </si>
   <si>
+    <t xml:space="preserve">banana.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">orange</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t xml:space="preserve">quả chanh vàng</t>
   </si>
   <si>
+    <t xml:space="preserve">lemon.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">pineapple</t>
   </si>
   <si>
@@ -79,6 +88,9 @@
     <t xml:space="preserve">quả dừa</t>
   </si>
   <si>
+    <t xml:space="preserve">coconut.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">blueberry</t>
   </si>
   <si>
@@ -91,6 +103,9 @@
     <t xml:space="preserve">quả nho</t>
   </si>
   <si>
+    <t xml:space="preserve">Grapes.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">kiwi</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
     <t xml:space="preserve">quả chanh xanh</t>
   </si>
   <si>
+    <t xml:space="preserve">Lime.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">lychee</t>
   </si>
   <si>
@@ -119,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">quả dâu tây</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strawberry.png</t>
   </si>
   <si>
     <t xml:space="preserve">watermelon</t>
@@ -273,14 +294,16 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,25 +338,31 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -342,22 +371,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -366,10 +398,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -378,22 +410,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -402,22 +437,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -426,22 +464,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -450,10 +491,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -462,22 +503,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -486,10 +530,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7" t="n">
         <f aca="false">FALSE()</f>
@@ -498,10 +542,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7" t="n">
         <f aca="false">FALSE()</f>

--- a/res/voc/fruit.xlsx
+++ b/res/voc/fruit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Hoa quả</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">quả cam</t>
   </si>
   <si>
+    <t xml:space="preserve">orange.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">lemon</t>
   </si>
   <si>
@@ -76,12 +79,18 @@
     <t xml:space="preserve">quả dứa</t>
   </si>
   <si>
+    <t xml:space="preserve">pineapple.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">mango</t>
   </si>
   <si>
     <t xml:space="preserve">quả xoài</t>
   </si>
   <si>
+    <t xml:space="preserve">mango.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">coconut</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t xml:space="preserve">quả việt quất</t>
   </si>
   <si>
+    <t xml:space="preserve">Blueberry.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">grape</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t xml:space="preserve">quả kiwi</t>
   </si>
   <si>
+    <t xml:space="preserve">kiwi.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">lime</t>
   </si>
   <si>
@@ -127,12 +142,18 @@
     <t xml:space="preserve">quả vải</t>
   </si>
   <si>
+    <t xml:space="preserve">Lychee.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">papaya</t>
   </si>
   <si>
     <t xml:space="preserve">quả đu đủ</t>
   </si>
   <si>
+    <t xml:space="preserve">papaya.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">strawberry</t>
   </si>
   <si>
@@ -148,16 +169,16 @@
     <t xml:space="preserve">quả dưa hấu</t>
   </si>
   <si>
+    <t xml:space="preserve">watermelon.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">peach</t>
   </si>
   <si>
     <t xml:space="preserve">quả đào</t>
   </si>
   <si>
-    <t xml:space="preserve">fly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hugh??</t>
+    <t xml:space="preserve">peach.png</t>
   </si>
 </sst>
 </file>
@@ -291,19 +312,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,188 +389,203 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C18" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="D18" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/res/voc/fruit.xlsx
+++ b/res/voc/fruit.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="102">
   <si>
     <t/>
   </si>
@@ -32,6 +32,111 @@
     <t>imgPath</t>
   </si>
   <si>
+    <t>papaya</t>
+  </si>
+  <si>
+    <t>quả đu đủ</t>
+  </si>
+  <si>
+    <t>papaya.png</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>quả anh đào</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>quả kiwi</t>
+  </si>
+  <si>
+    <t>kiwi.png</t>
+  </si>
+  <si>
+    <t>fig</t>
+  </si>
+  <si>
+    <t>quả sung</t>
+  </si>
+  <si>
+    <t>dragonfruit</t>
+  </si>
+  <si>
+    <t>quả thanh long</t>
+  </si>
+  <si>
+    <t>kumquat</t>
+  </si>
+  <si>
+    <t>quả quất</t>
+  </si>
+  <si>
+    <t>shaddock</t>
+  </si>
+  <si>
+    <t>quả bưởi</t>
+  </si>
+  <si>
+    <t>rambutan</t>
+  </si>
+  <si>
+    <t>quả chôm chôm</t>
+  </si>
+  <si>
+    <t>jackfruit</t>
+  </si>
+  <si>
+    <t>quả mít</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>quả táo</t>
+  </si>
+  <si>
+    <t>apple.png</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>quả chanh vàng</t>
+  </si>
+  <si>
+    <t>lemon.png</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>quả lê</t>
+  </si>
+  <si>
+    <t>pomegranate</t>
+  </si>
+  <si>
+    <t>quả lựu</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>quả dưa hấu</t>
+  </si>
+  <si>
+    <t>watermelon.jpg</t>
+  </si>
+  <si>
+    <t>starfruit</t>
+  </si>
+  <si>
+    <t>quả khế</t>
+  </si>
+  <si>
     <t>banana</t>
   </si>
   <si>
@@ -41,22 +146,34 @@
     <t>banana.png</t>
   </si>
   <si>
-    <t>papaya</t>
-  </si>
-  <si>
-    <t>quả đu đủ</t>
-  </si>
-  <si>
-    <t>papaya.png</t>
-  </si>
-  <si>
-    <t>kiwi</t>
-  </si>
-  <si>
-    <t>quả kiwi</t>
-  </si>
-  <si>
-    <t>kiwi.png</t>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>quả mận</t>
+  </si>
+  <si>
+    <t>mandarin</t>
+  </si>
+  <si>
+    <t>quả quýt</t>
+  </si>
+  <si>
+    <t>raspberry</t>
+  </si>
+  <si>
+    <t>quả mâm xôi</t>
+  </si>
+  <si>
+    <t>avocado</t>
+  </si>
+  <si>
+    <t>quả bơ</t>
+  </si>
+  <si>
+    <t>curstard-apple</t>
+  </si>
+  <si>
+    <t>quả na</t>
   </si>
   <si>
     <t>blueberry</t>
@@ -77,6 +194,12 @@
     <t>Lime.png</t>
   </si>
   <si>
+    <t>passion fruit</t>
+  </si>
+  <si>
+    <t>quả chanh dây</t>
+  </si>
+  <si>
     <t>strawberry</t>
   </si>
   <si>
@@ -131,15 +254,6 @@
     <t>orange.png</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>quả táo</t>
-  </si>
-  <si>
-    <t>apple.png</t>
-  </si>
-  <si>
     <t>lychee</t>
   </si>
   <si>
@@ -149,13 +263,22 @@
     <t>Lychee.jpg</t>
   </si>
   <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>quả chanh vàng</t>
-  </si>
-  <si>
-    <t>lemon.png</t>
+    <t>walnut</t>
+  </si>
+  <si>
+    <t>quả óc chó</t>
+  </si>
+  <si>
+    <t>longan</t>
+  </si>
+  <si>
+    <t>quả nhãn</t>
+  </si>
+  <si>
+    <t>star apple</t>
+  </si>
+  <si>
+    <t>quả vú sữa</t>
   </si>
   <si>
     <t>pineapple</t>
@@ -167,13 +290,34 @@
     <t>pineapple.jpeg</t>
   </si>
   <si>
-    <t>watermelon</t>
-  </si>
-  <si>
-    <t>quả dưa hấu</t>
-  </si>
-  <si>
-    <t>watermelon.jpg</t>
+    <t>persimmon</t>
+  </si>
+  <si>
+    <t>quả hồng</t>
+  </si>
+  <si>
+    <t>guava</t>
+  </si>
+  <si>
+    <t>quả ổi</t>
+  </si>
+  <si>
+    <t>pumpkin</t>
+  </si>
+  <si>
+    <t>quả bí ngô</t>
+  </si>
+  <si>
+    <t>durian</t>
+  </si>
+  <si>
+    <t>quả sầu riêng</t>
+  </si>
+  <si>
+    <t>tamarind</t>
+  </si>
+  <si>
+    <t>quả me</t>
   </si>
 </sst>
 </file>
@@ -229,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -262,7 +406,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -276,206 +420,542 @@
         <v>10</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="true">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="true">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="true">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="true">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="true">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="true">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="true">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="true">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="true">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="true">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="true">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="true">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="true">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="true">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="true">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="true">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="b">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="true">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="true">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="true">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="true">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="true">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="true">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>53</v>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="true">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="true">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="true">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="true">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="true">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="true">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="true">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="true">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="true">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="true">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="true">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="true">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
